--- a/Data/2007 STOP Summary.xlsx
+++ b/Data/2007 STOP Summary.xlsx
@@ -19372,7 +19372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
@@ -23397,7 +23397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
@@ -29260,7 +29260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
@@ -34633,7 +34633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
@@ -37780,7 +37780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C41" activePane="bottomRight" state="frozen"/>

--- a/Data/2007 STOP Summary.xlsx
+++ b/Data/2007 STOP Summary.xlsx
@@ -7503,7 +7503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW20"/>
+  <dimension ref="A1:BW19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11778,260 +11778,229 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Placer County Fair          DATA NOT AVAILABLE</t>
-        </is>
+          <t>Lodi Grape Festival</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1649668</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>577561</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2227229</v>
+      </c>
+      <c r="F19" t="n">
+        <v>124000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>193279</v>
+      </c>
+      <c r="H19" t="n">
+        <v>268796</v>
+      </c>
+      <c r="I19" t="n">
+        <v>234248</v>
+      </c>
+      <c r="J19" t="n">
+        <v>62450</v>
+      </c>
+      <c r="K19" t="n">
+        <v>244240</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1428</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>28330</v>
+      </c>
+      <c r="T19" t="n">
+        <v>105268</v>
+      </c>
+      <c r="U19" t="n">
+        <v>238433</v>
+      </c>
+      <c r="V19" t="n">
+        <v>979</v>
+      </c>
+      <c r="W19" t="n">
+        <v>139974</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1055350</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>413181</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>332843</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>57858</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>86414</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13629</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>32042</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41484</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>107156</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>77317</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3360</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>233</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>20796</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1186813</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>-169479</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>91854</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1981737</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>530627</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>2512364</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.4471024500068672</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>591545.1</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>4586.35</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>3313.65</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>88340.41</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3208025.6</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>565491.1800000001</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>-1883433.74</v>
       </c>
       <c r="BJ19" t="n">
+        <v>2577868.55</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>8120.28</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>23614.61</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>33105.79</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>664.12</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
         <v>0</v>
       </c>
       <c r="BS19" t="n">
-        <v>0</v>
+        <v>65504.8</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1981737.1</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>530626.65</v>
       </c>
       <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lodi Grape Festival</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1649668</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>577561</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2227229</v>
-      </c>
-      <c r="F20" t="n">
-        <v>124000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>193279</v>
-      </c>
-      <c r="H20" t="n">
-        <v>268796</v>
-      </c>
-      <c r="I20" t="n">
-        <v>234248</v>
-      </c>
-      <c r="J20" t="n">
-        <v>62450</v>
-      </c>
-      <c r="K20" t="n">
-        <v>244240</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1428</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>28330</v>
-      </c>
-      <c r="T20" t="n">
-        <v>105268</v>
-      </c>
-      <c r="U20" t="n">
-        <v>238433</v>
-      </c>
-      <c r="V20" t="n">
-        <v>979</v>
-      </c>
-      <c r="W20" t="n">
-        <v>139974</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1055350</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>413181</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>332843</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>57858</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>86414</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13629</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>32042</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41484</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>107156</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>77317</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3360</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>233</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>20796</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1186813</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>-169479</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>91854</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1981737</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>530627</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>2512364</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.4471024500068672</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>591545.1</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>4586.35</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>3313.65</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>88340.41</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>3208025.6</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>565491.1800000001</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>-1883433.74</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>2577868.55</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>8120.28</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>23614.61</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>33105.79</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>664.12</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>65504.8</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>1981737.1</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>530626.65</v>
-      </c>
-      <c r="BW20" t="n">
         <v>2577868.55</v>
       </c>
     </row>
@@ -19372,7 +19341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
@@ -23239,118 +23208,9 @@
         <v>1157267.56</v>
       </c>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="17" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="N2:N3"/>
@@ -23397,7 +23257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
@@ -29100,116 +28960,9 @@
         <v>2093928</v>
       </c>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="17" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="V2:V3"/>
@@ -29260,7 +29013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
@@ -34488,118 +34241,9 @@
         <v>2577868.55</v>
       </c>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="16" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
@@ -34633,7 +34277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
@@ -37632,115 +37276,9 @@
         <v>5681403.26</v>
       </c>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="16" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A60:B61"/>
@@ -37780,7 +37318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
@@ -39925,117 +39463,9 @@
     <row r="90">
       <c r="A90" s="15" t="n"/>
     </row>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95">
       <c r="A95" s="16" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A57:B58"/>
@@ -40072,7 +39502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
@@ -42272,119 +41702,12 @@
         <v>19117388</v>
       </c>
     </row>
-    <row r="91"/>
     <row r="92">
       <c r="A92" s="15" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="16" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A59:B60"/>
@@ -42421,7 +41744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -44133,117 +43456,12 @@
     <row r="92">
       <c r="A92" s="15" t="n"/>
     </row>
-    <row r="93"/>
     <row r="94">
       <c r="E94" s="33" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="16" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E2:E3"/>
